--- a/dadosss.xlsx
+++ b/dadosss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +598,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>648f65656bbb569c0a9cef18</t>
+          <t>648f762775256ed470b01c0c</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -740,7 +740,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>648f65724fc5961b5098196e</t>
+          <t>648f76c1addf71d10471ba43</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -882,7 +882,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>648f657c647c961c7ee01096</t>
+          <t>648f77217855df9b969108c4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>648f6583a87ff530dd2552ba</t>
+          <t>648f77394a3083df5a8300f6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1162,432 +1162,6 @@
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>648f65a2f8d3c1748119447a</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>['11107743', '11027469', '11124862', '11134568', '11140714', '11145308', '11150799', '11159973', '11163758', '21903087', '11171374', '11180318', '11185005', '11190284', '11194637', '11201897', '11204862', '11210882', '11218329', '20298770', '11232617', '11237176', '11241548', '11245839', '11253130', '09619012', '11269763', '11276943', '11282473', '11289787', '11293997', '11299132', '11306755', '20524416', '16096945', '19191457', '22936038', '11312721', '11320616', '11326612', '11331176', '11342205', '11227293', '11350905', '11355950', '11365653', '11371393', '20601447', '11380823', '11389929', '11396252', '11402758', '11407993', '20304692', '11419551', '11426773', '11433659', '11439057', '11444216', '11451115', '11464818', '11468783', '11478879', '11490807', '11493477', '11501496', '11506716', '11511277', '11516264', '11518945', '11528120', '11544144', '11550995', '11564703', '20309446', '11578001', '11587125', '11594698', '11601142', '11606136', '11611086', '11623805', '11632322', '20311594', '11647033', '11655050', '11661518', '11669150', '11678965', '11600321', '11687671', '11695091', '11703343', '11712209', '20314299', '11723968', '11728955', '11737353', '11744445', '11749506']</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001']</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>['81', '30', '42', '11', '11', '41', '19', '94', '67', '87', '96', '18', '52', '42', '82', '38', '52', '36', '40', '70', '59', '88', '40', '06', '52', '73', '59', '68', '45', '70', '31', '82', '35', '16', '99', '59', '03', '53', '66', '95', '42', '71', '60', '08', '55', '90', '66', '23', '06', '70', '06', '72', '37', '79', '00', '50', '58', '08', '62', '19', '81', '59', '06', '76', '72', '01', '81', '03', '19', '16', '82', '25', '80', '69', '00', '34', '86', '37', '20', '66', '05', '08', '70', '69', '44', '23', '92', '09', '54', '43', '99', '43', '39', '02', '66', '62', '86', '95', '00', '14']</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>['1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1']</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['CRIS BOLSAS', 'DELTANET', 'OBA PRODUCOES', 'D J VARIEDADES', 'WARP COM', 'ETERNO DESEJO', 'ISOUZA INFORMATICA', 'SALA TRANSPORTES', 'A PRINCESINHA', 'NARIA CONFECCAO', 'MADEIREIRA M. BORGES', 'SAG CONFECCOES', 'F DAS CHAGAS PINTURAS', 'CONSTRUFORT', 'ATACADAO DO SOM', "DI'CHOCOLAT", 'VET LIFE', 'MERCADO VIANA', 'REAL MOVEIS', 'ROSA LINDA FASHION', 'N&amp;B SIMPLY', 'FJ CURSOS TECNOLOGIA', 'VIVIANE COMERCIO DE FLORES', 'PAPELARIA UTINGA', 'PALACIO DOS COLCHOES', 'REGINA KATSUE INFORMATICA', 'FADORE PRESENTES', 'QUEIROZ ARMARINHOS', 'MINIMERCADO', 'MERCANTIL ADRIANY', 'PADARIA E CONFEITARIA CIDADE JARDIM', 'LG MADEIREIRA', 'BELLACACIO HOTELARIA E ALOJAMENTO', 'POUSADA LITORAL', 'PISON BIJUTERIAS E ACESSORIOS', 'TOM EMBALAGENS', 'MOVEIS MARCENARIA', 'EWX IMPORTACAO', 'XIS DO ELVI', 'CANTINHO DO BICHO', 'ACQUA PLANET', 'DHARMATEC', 'BOUTIQUE ADRIANA PINHATA', 'IMPERIAL EXPRESS', 'ANTONIO CONFECCOES', 'AGROPECUARIA CRISFAMA', 'MOTO TAXI DOIS IRMAOS', 'JAFE', 'BAR DO BIGODE', 'SAKURA TEC', 'SUPERMERCADO BASTOS', 'RAIANE', 'FELIX BICICLETARIA E TINTAS EM GERAL', 'BV VEICULOS', 'SB SAUDE', 'DL DISTRIBUIDORA', 'SANTOS TRANSPORTE', 'RESTAURANTE RUBIO', 'NILSON IMOVEIS']</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['04', '04', '08', '08', '02', '02', '04', '04', '08', '08', '08', '08', '02', '08', '02', '08', '08', '04', '04', '02', '04', '08', '04', '08', '02', '02', '02', '08', '04', '04', '04', '02', '04', '02', '08', '08', '02', '08', '08', '04', '04', '04', '02', '04', '04', '04', '08', '02', '02', '04', '08', '04', '08', '08', '08', '08', '02', '04', '08', '08', '04', '02', '08', '08', '04', '04', '08', '04', '08', '02', '02', '08', '04', '02', '04', '08', '04', '08', '02', '02', '04', '08', '04', '08', '08', '04', '02', '02', '02', '02', '04', '08', '08', '08', '08', '04', '08', '04', '04', '02']</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['20181227', '20210326', '20121218', '20180219', '20090813', '20090916', '20210406', '20210226', '20110627', '20180217', '20200220', '20200930', '20090826', '20190604', '20090918', '20230203', '20140919', '20210218', '20181016', '20140522', '20181016', '20180724', '20210323', '20110901', '20210816', '20080505', '20090921', '20221201', '20210415', '20190104', '20210310', '20091110', '20210310', '20140630', '20210401', '20201117', '20150727', '20220808', '20230425', '20181009', '20190116', '20210226', '20091005', '20180918', '20181010', '20210415', '20160610', '20140708', '20091204', '20190201', '20171129', '20181219', '20210727', '20150529', '20151029', '20170204', '20091215', '20201029', '20180522', '20100616', '20210323', '20210112', '20181214', '20151214', '20220610', '20181214', '20151215', '20210419', '20230207', '20100201', '20100128', '20190321', '20210310', '20100203', '20210326', '20120803', '20181218', '20210716', '20100225', '20100219', '20210406', '20120830', '20210415', '20171214', '20210719', '20210419', '20091223', '20100225', '20100303', '20100218', '20180918', '20120921', '20101210', '20100916', '20141212', '20190329', '20100625', '20181107', '20210310', '20100317']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['63', '63', '01', '01', '00', '00', '63', '63', '01', '01', '01', '01', '00', '01', '00', '01', '01', '63', '63', '00', '63', '01', '63', '01', '00', '00', '00', '01', '63', '63', '63', '00', '63', '00', '01', '01', '00', '01', '01', '63', '63', '63', '00', '63', '63', '63', '01', '00', '00', '63', '01', '63', '01', '01', '01', '01', '00', '63', '01', '01', '63', '00', '01', '01', '63', '63', '01', '63', '01', '00', '00', '01', '63', '00', '63', '01', '63', '01', '00', '00', '63', '01', '63', '01', '66', '63', '00', '00', '00', '00', '63', '54', '01', '01', '01', '63', '01', '63', '63', '00']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>['20090818', '20090724', '20090814', '20090820', '20090813', '20090916', '20090904', '20090917', '20090922', '20150220', '20090923', '20090914', '20090826', '20090923', '20090918', '20091006', '20091007', '20091007', '20091009', '20140522', '20090910', '20091002', '20090914', '20090918', '20091008', '20080505', '20090921', '20091016', '20091023', '20091030', '20091022', '20091110', '20091028', '20140630', '20120706', '20131104', '20150727', '20091109', '20090925', '20091118', '20091109', '20091116', '20091005', '20090911', '20091021', '20090921', '20091104', '20140708', '20091204', '20091125', '20091124', '20091113', '20091207', '20140523', '20091217', '20091228', '20091215', '20100104', '20091223', '20100105', '20100108', '20091201', '20100114', '20091214', '20091210', '20100128', '20100127', '20091126', '20100127', '20100201', '20100128', '20100127', '20100201', '20100203', '20140523', '20100218', '20100212', '20100217', '20100225', '20100219', '20091215', '20100113', '20100211', '20140523', '20100305', '20100222', '20091223', '20100225', '20100303', '20100218', '20100219', '20100311', '20100309', '20100309', '20140523', '20100309', '20100218', '20100319', '20100204', '20100317']</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>['4721102', '4782202', '4742300', '9329804', '5611203', '5611204', '4712100', '4520007', '4763601', '9511800', '4781400', '4930202', '9511800', '4930202', '5223100', '4782201', '4781400', '1610203', '4781400', '8599605', '4330403', '9313100', '1531902', '4729699', '4744004', '4649402', '4617600', '4789001', '5611203', '7500100', '4782201', '4712100', '4754701', '4781400', '7319003', '8599603', '1412601', '4789002', '4781400', '4789007', '4755503', '6201501', '4759899', '4530703', '4721102', '3831901', '4755503', '4712100', '4723700', '4712100', '4721102', '4744002', '8230001', '5510801', '5510801', '1813001', '8541400', '4789001', '8593700', '4789099', '7729202', '4744002', '8291100', '3101200', '4744099', '4742300', '4744099', '4772500', '5611203', '6920601', '5611204', '4789004', '4753900', '6319400', '3314710', '4781400', '4511102', '5320202', '4781400', '4789004', '4744099', '7722500', '4761002', '4923001', '4621400', '5611201', '4322301', '4712100', '6209100', '8211300', '4712100', '4763603', '4753900', '4512901', '8650004', '4649499', '4721102', '4930202', '5611203', '6821801']</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>['4781400', '4321500', '4723700,5611203,9511800', '4781400', '4712100,9329803,9001906,7739003', '4530703', '4713002', '3212400', '4772500', '8599699,6190699,4751201,4321500', '4929902', '9609299', '4755503,4782201', '4330404', '4763602', '4781400', '4399103', '4618401', '4772500', '5611204', '4771704,4789004', '4755503,4781400,4763601,4782201,4784900,6619302', '4755503', '5320202,4763601,4772500,8219999', '4713004', '4754702,4754701,4782202,4781400,4782201', '4755502,4761003,4789001,4763601', '4520001,4530704', '3831999,3832700,3839499', '4755502', '4722901,4789004', '4782201,4772500,4723700,4724500,4755502,4744099', '4781400', '4723700,4729699,4789099', '4744099,4329199', '4754701,9529105', '4744001,4744099', '4744001,4120400,4110700', '4781400,4789001', '5620102,8230002', '5611203', '4771704', '6202300,6201501', '4789099', '4511101,4520001', '4930202,5211799,5320201', '4755502,4755503,4782201', '4771704,4763604', '4753900,4759899,4762800', '4713002,4761001,4781400', '1081301,4632001', '5611203,5611204,4723700,4712100,5620104', '4759899', '8599604,7020400,7490104', '9529104,4741500', '4751201,4752100', '4512902,4511102,4511101', '4618402,4618401', '4686902,4647801,4669999,4689399,4651601,4642701,4643501,4649404,4679699,4673700,4649401,4635401,4789007,4721104,4723700,4741500,4744001,4751201,4752100,4742300,4744099,4713002,4782201,4781400,4754701,4753900,7733100', '6821802']</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>['AVENIDA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA', 'ESTRADA', 'AVENIDA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'ALAMEDA', 'RUA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'TRAVESSA', 'RUA', 'AVENIDA', 'RUA', 'PRACA', 'AVENIDA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'ESTRADA MUNICIPAL', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RODOVIA', 'RUA', 'RUA', 'AVENIDA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA']</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>['LEOMIL', 'SVAA EVANS', 'DOUTOR ALVARO RIBEIRO', 'MARQUES DO HERVAL', 'PASCHOAL CARLOS MAGNO', 'PRESIDENTE ANTONIO CARLOS', 'JACQUES COELHO DA SILVA', 'M BOI MIRIM, DO', 'ANTONIO CASTILHO', 'CASTRO ALVES', 'BARAO HOMEM DE MELO', 'ANTONIO  MAGRIM', 'SANTA IFIGENIA', 'FLORIANO PEIXOTO', 'MATEUS GROU', 'JOANA ANGELICA', 'C', 'GOV. JOAO PONCE DE ARRUDA', 'BRESSER', 'OLIVEIRA LIMA', 'PASTORIL DE ALMENARA', 'OCTAVIA PORTO RODRIGUES', 'GILBERTO AGUIAR', 'JOAO MOURA', 'SAO PAULO', 'LUIS DOMINGUES', 'SENADOR ROBERTO SIMONSEN', 'RUA GENERAL GLICERIO', ' DOS  JACARANDAS', 'LAVAPES', 'SANTA TEREZINHA', 'ANITA GARIBALDE', 'SETE DE SETEMBRO', 'PAULO FRANCO WERNECK', 'MARIO CALDERARO', 'JUA MIRIM', 'SILVERIO FURQUIM', 'CONRADO CALDEIRA BRANT', 'FREI GASPAR', 'VISCONDE DE UTINGA', 'ARI RODRIGUES', 'FREIRE FARTO', 'JOAO CALTABIANO', 'FRANCISCO MADIA', 'ERNESTO PEDRO CROZETA', 'PDE. JEREMIAS JOSE NOGUEIRA', 'ROUXINOL', 'MIMOSO DO SUL', 'DAS LARANJEIRAS', 'ABILIO GAMA', 'ITUVERAVA', 'QUARENTENARIO', 'PINDORAMA', 'NOSSA SENHORA APARECIDA', 'LIDIO MARTINS CORREIA', 'ESPIRITO SANTO', 'JOSE URBANO SANCHES', 'OLEGARIO MACIEL', 'PADRE ROQUE', 'JERONIMO SOUTO MAIOR', 'DOLORES MACIEL ALMEIDA', 'DOUTOR ARMANDO PANNUNZIO', 'DOS POTIGUARES', 'BARRA DOS BANDEIRANTES', 'VISCONDE DE NITEROI', 'PANORAMA', 'BARONESA DO CERRO AZUL', 'SAO ROQUE', 'PADRE NELSON ANTONIO ROMAO', 'MORRO AGUDO', 'BORGES DE MEDEIROS', 'JOSE CARLOS DOS SANTOS', 'DOUTOR SALES DE OLIVEIRA', 'ZERILLO PEREIRA LOPES', 'CRISTALINA', 'TIJUCO PRETO', 'THEDA FIGUEIREDO REGA', 'URUGUAIANA', 'VER. ACYR JOSE DAMASCENO, 4303', 'TREZE DE MAIO', 'DUARTE DA COSTA', 'CIDADE JARDIM', 'SANTA TEREZINHA', 'CAIOBA', 'LINHA 12, KM 08', 'BENEDITO PIRES RODRIGUES', 'PAULO JACINTO', 'RAIMUNDO JOSE PEREIRA', 'QUINZE DE NOVEMBRO', 'SEPETIBA', 'PAULO MANZANO CASTILHO', 'INDIO TIBIRICA', 'DAS HORTENCIAS', 'GENERAL OSORIO', 'TANCREDO NEVES', 'VITORIA', 'PROFESSOR ANTONIO RUETE', 'ADAIR BEZERRA PEREIRA', 'NUNO ALVARES PEREIRA', 'CONEGO VALADAO']</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>['190', '127', '732', '268', '188', '26', '305', '4801', 'SN', '537', '55', '624', '574', '1706', '109', '938', '333', '330', '601', '833', '9', '270 E', '821', '458', '305', '1425', '123', '517', '20', '130', '588', 'SN', '599', '553', '612', '350', '118', '29', '2595', '259', '228', '138', '410', '448', '356', '412', '67', '112', '4-125', '2377', '121', '1995', '171', '142', '607', '664', '568', '306', '491', '20', '591', '1144', '2554', '886', '414', '229', '299', '20', '1547', '26', '1536', '110', '380', '477', '438', '172', '225', '405', '4303', '877', '737', '4.252', '80', '757', 'S/N', '45', '173', '370', '189', '614', '125', '2639', '1582', '312', '620', '1 E 2', '310', '213', '193', '591']</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>['      200', ': COMERCIO;', 'CASA  1', 'TERREO', 'LOJA: 17;', 'ANDAR 2;SALA 14', 'EDIF', 'LOJA: 1;', '      CONJ. 18', 'CXPST 13', '      272', 'TERREO                    CONJ  21', '      SALA D', '      TERREO', 'APT 1012 B', 'CASA CASA', '      .', 'EDIF;', 'LOJA: 08;', 'SALA  03', 'LOTE: 9; QUADRA: I;', 'SALA  11', 'CASA', '      SALA 04', 'CASA  41', 'CONJ  74-A', 'LOJA  03', '      BOM SUCESSO', 'SALA  08', 'SALA  2', 'COND  MUNDO PLAZA         SALA  517 E 518', 'LOJA;']</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>['CENTRO', 'JD. PRES. DUTRA', 'JARDIM RUBI', 'CENTRO', 'JARDIM MONTE CRISTO/PARQUE OZIEL', 'CENTRO', 'JARDIM NOVA ALVORADA', 'JARDIM REGINA', 'CENTRO', 'JARDIM AMANDA II', 'NOVA GRANADA', 'JOAO FLAVIO', 'SANTA EFIGENIA', 'VILA TAMOIO', 'PINHEIROS', 'NAZARE', 'INDEPENDENCIA (BARREIRO)', 'SETRO INDUSTRIAL', 'BRAS', 'SOLEDADE', 'PARQUE PAN AMERICANO', 'GALO BRANCO', 'JARDIM PAULISTANO II', 'PINHEIROS', 'CENTRO', 'CENTRO', 'JARDIM NOVO MUNDO', 'CENTRO', 'JARDIM PRIMAVERAS', 'CENTRO', 'VILA BANDEIRANTES', 'CAMPO BOM', 'CENTRO', 'CENTRO', 'ENGENHO DE DENTRO', 'JARDIM PEDRA BRANCA', 'JARDIM DAS TULIPAS', 'VILA MARARI', 'PARQUE SAO VICENTE', 'CENTRO', 'AEROPORTO VELHO', 'JABAQUARA', 'CENTRO', 'CIDADE JARDIM', 'JD KELI CRISTINA', 'SAO SEBASTIAO', 'PORTAL LARANJEIRAS', 'SAO TOME', 'NUCLEO RESIDENCIAL PRESIDENTE GEISEL', 'FORTALEZA', 'CIDADE JARDIM', 'JARDIM QUARENTENARIO', 'VILA MOTTA', 'CENTRO', 'VILA ZILDA', 'CENTRO', 'VILA OLIVEIRA', 'CENTRO', 'CENTRO', 'VILA NINA', 'JARDIM DOUTOR ANTONIO PETRAGLIA', 'JARDIM VERA CRUZ', 'NOSSA SENHORA DE NAZARE', 'MANGABEIRA', 'SAO  CRISTOVAO', 'JARDIM STO AFONSO', 'PRAIA DE LESTE', 'CENTRO', 'NOVA MATAO', 'BOM CLIMA', 'CENTRO', 'CENTRO', 'VILA INDUSTRIAL', 'ALTO TAQUARAL', 'CIDADE PARQUE BRASILIA', 'TATUAPE', 'BEL JARDIM', 'BOSQUE', 'CENTRO', 'CENTRO', 'PARQUE IMPERIAL / MUTINGA', 'BOSQUE DOS EUCALIPTOS', 'ROBERTO', 'MODULO 5', 'ZONA RURAL', 'VILA SANTO ANTONIO', 'CIDADE PARQUE BRASILIA (JARDIM PRESIDENTE DUTRA)', 'PARURU', 'CENTRO', 'VILA ROMANA', 'JARDIM LEME', 'ITRAPOA', 'VILA HELENA', 'CENTRO', 'CAMINHO DAS ARVORES', 'MARCILIO DE NORONHA', 'NOVA JABOTICABAL', 'FRANCISCO DE PAULA', 'VILA NOGUEIRA', 'GOPOUVA']</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>['11410160', '07171220', '06502181', '13990000', '13049117', '35430003', '13190000', '04948030', '78587000', '13188210', '30431285', '14415000', '01207000', '14815000', '05415050', '40050000', '30666640', '78320000', '03017000', '50050390', '02993040', '12247600', '14402410', '05412001', '18490000', '65901430', '12906330', '16010080', '14820000', '13480760', '16203094', '88715000', '16600019', '25780000', '20735330', '08490800', '13212631', '04403170', '11340000', '55500000', '69903560', '04343120', '12580000', '18055440', '83609400', '13690000', '07700001', '94465400', '17033000', '68300000', '13050412', '11347520', '15804060', '35970000', '11436010', '36010041', '08780220', '35300365', '13800033', '02834090', '14409135', '18050000', '59062280', '44056532', '20941000', '07215150', '83255000', '18550000', '15990590', '07196290', '99260000', '15830000', '13035270', '13087757', '07243080', '03316000', '06243020', '13026001', '76867000', '14940166', '06462120', '12233002', '15835000', '78320000', '76934000', '18560000', '07243130', '18150000', '06501145', '05052000', '06773140', '09442000', '09175500', '95720000', '41820020', '29130010', '14887032', '14180000', '13088020', '07040000']</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>['SP', 'SP', 'SP', 'SP', 'SP', 'MG', 'SP', 'SP', 'MT', 'SP', 'MG', 'SP', 'SP', 'SP', 'SP', 'BA', 'MG', 'MT', 'SP', 'PE', 'SP', 'SP', 'SP', 'SP', 'SP', 'MA', 'SP', 'SP', 'SP', 'SP', 'SP', 'SC', 'SP', 'RJ', 'RJ', 'SP', 'SP', 'SP', 'SP', 'PE', 'AC', 'SP', 'SP', 'SP', 'PR', 'SP', 'SP', 'RS', 'SP', 'PA', 'SP', 'SP', 'SP', 'MG', 'SP', 'MG', 'SP', 'MG', 'SP', 'SP', 'SP', 'SP', 'RN', 'BA', 'RJ', 'SP', 'PR', 'SP', 'SP', 'SP', 'RS', 'SP', 'SP', 'SP', 'SP', 'SP', 'SP', 'SP', 'RO', 'SP', 'SP', 'SP', 'SP', 'MT', 'RO', 'SP', 'SP', 'SP', 'SP', 'SP', 'SP', 'SP', 'SP', 'RS', 'BA', 'ES', 'SP', 'SP', 'SP', 'SP']</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>['6475', '6477', '7047', '6865', '6291', '5041', '6737', '7107', '1034', '2951', '4123', '6827', '7107', '6487', '7107', '3849', '4123', '9831', '7107', '2531', '7107', '7099', '6425', '7107', '6201', '0803', '6251', '6155', '6133', '6639', '6229', '8173', '6879', '6009', '6001', '7107', '6619', '7107', '7121', '2403', '0139', '7107', '6987', '7145', '7481', '6375', '6281', '8963', '6219', '0461', '6291', '7121', '6323', '4107', '6475', '4733', '6713', '4267', '6717', '7107', '6425', '7145', '1761', '3515', '6001', '6477', '0870', '6239', '6687', '6477', '8595', '6863', '6291', '6291', '6477', '7107', '6789', '6291', '0024', '6493', '6213', '7099', '6863', '9831', '0699', '6521', '6477', '6495', '7047', '7107', '7157', '6967', '7057', '8669', '3849', '5701', '6587', '6905', '6291', '6477']</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>['13', '11', '11', '19', '19', '31', '19', '11', '66', '19', '31', '16', '11', '16', '11', '71', '31', '66', '11', '81', '11', '12', '16', '11', '15', '99', '11', '18', '16', '19', '18', '48', '14', '24', '22', '11', '11', '11', '13', '81', '68', '11', '12', '15', '41', '19', '11', '51', '14', '91', '19', '13', '17', '31', '13', '32', '11', '33', '19', '11', '16', '15', '84', '75', '21', '11', '41', '15', '16', '11', '54', '17', '19', '19', '11', '11', '11', '19', '69', '16', '11', '12', '17', '66', '69', '15', '11', '15', '11', '11', '11', '11', '11', '54', '71', '27', '16', '16', '19', '11']</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>['32298888', '24314434', '94906167', '36511209', '32289811', '38811695', '38791705', '33136533', '35251525', '98271309', '32713208', '31451390', '66952383', '33431137', '38720122', '91963478', '33844529', '35661322', '34499802', '32230063', '36214094', '39416366', '30174689', '92612131', '35651164', '35246694', '34047760', '36225018', '33923667', '34414401', '36441516', '36243289', '35224168', '92029728', '81189884', '54860036', '45821710', '55896735', '32897927', '35342611', '32245538', '25781266', '36461303', '34114484', '30166068', '35834413', '96793007', '30457426', '97557823', '37831453', '32672821', '30148032', '35221328', '38526756', '33521035', '32413542', '47997200', '33216722', '38622487', '39895830', '31451440', '21044659', '32061646', '36145933', '78290320', '20800101', '34232383', '32632700', '33849192', '20870748', '33471209', '35721460', '32695674', '32964440', '42158285', '20810367', '35997571', '38716545', '35251091', '33414405', '41917501', '39333000', '35731198', '96146292', '36232141', '32664462', '24343436', '32891329', '42808241', '36452369', '42455748', '48239102', '44330980', '91747000', '30210040', '33361790', '92195188', '39535831', '92672958', '23046369']</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>['11', '31', '31', '16', '71', '15', '11', '68', '41', '14', '13', '13', '84', '11', '11', '12', '66', '15', '11', '11', '11', '71', '11']</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>['24314434', '38172109', '92050710', '33432571', '32436202', '35651076', '55896735', '84162327', '30922020', '98557823', '32194664', '33521840', '41414623', '24793280', '24804598', '39344400', '96146292', '32661629', '87514098', '42455748', '44330980', '30210062', '49656604']</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>['11', '19', '31', '31', '16', '16', '11', '71', '16', '15', '16', '48', '11', '68', '14', '91', '13', '31', '13', '33', '16', '15', '84', '41', '11', '17', '11', '11', '19', '16', '12', '66', '15', '11', '11', '11', '11']</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>['24314434', '36511209', '38172109', '32713208', '31451390', '33431137', '27490124', '32436202', '37213496', '35651926', '33923667', '36241045', '22769910', '32245538', '32321689', '37831453', '32194664', '38526756', '33521840', '33216709', '31451440', '32113575', '32061646', '34232383', '24793280', '35721460', '20810367', '35997571', '38716545', '33427058', '39311200', '35667500', '32664462', '24343436', '36060538', '42455748', '44330984']</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>['f.m@uol.com.br', 'contabilidade@contabilmc.com.br', 'mserrat.ops@terra.com.br', 'escritsantacecilia@terra.com.br.', 'oliveira.aure@gmail.com', 'MM@PONTENET.COM.BR', 'murniek@interall.com.br', 'aline@lopesassessoria.com.br', 'dj_variedades@hotmail.com', 'warp_sys@hotmail.com', 'ETERNO.DESEJO@HOTMAIL.COM', 'valmirafliporoni@hotmail.com.br', 'ATENDIMENTO@ISOUZA.COM', 'organizacaofiscaluuniao@yahoo.com.br', 'esc.atlantida@uol.com.br', 'TARCISIOITA@IG.COM.BR', 'DEPTOCONTRATOS@CONTABILCERTA.COM.BR', 'grupo.virtu@ig.com.br', 'DIREITOCRIMINAL@HOTMAIL.COM', 'conthabilsjoao@ig.com.br', 'salgueiromoura@directnet.com.br', 'ESCRITORIOCONTADOR@HOTMAIL.COM', 'bgiosa@yahoo.com', 'gilulo@uol.com.br', 'CONTROLLIZAIAS@GMAIL.COM', 'vargascamila@gmail.com', 'invicta2@terra.com.br', 'escr.brasiliense@terra.com.br', 'gvambrosecchia@ig.com.br', 'olivermas@terra.com.br', 'escpaulista@uol.com.br', 'WILLIAN.SOUZAWF@YAHOO.COM.BR', 'NBDANY@HOTMAIL.COM', 'JANDERSON_BELO@YAHOO.COM.BR', 'climoreira25@gmail.com', 'efcfcont@hotmail.com', 'depauladom@uol.com.br', 'lelis.jose@terra.com.br', 'escritoriolg.cerrado@gmail.com', 'larissaangelo@terra.com.br', 'conthabilsjoao@ig.com.br', 'MINI.MERCADOFARROUPILHA@GMAIL.COM', 'ROBERGALVANI@HOTMAIL.COM', 'fcc3@bol.com.br', 'decymarcont@uol.com.br', 'asseccontabil@hotmail.com', 'oliani@terra.com.br', 'GABRIELARCANJO.VISAO@GMAIL.COM', 'contpirani@terra.com.br', 'MARCIO.MATTA@CLICK21.COM.BR', 'sintese@sintesecontabilidade.com.br', 'EVIDENCIAR@UOL.COM.BR', 'escritmc@terra.com.br', 'tagal@terra.com.br', 'mayra_consuelo@hotmail.com', 'ADMJCONTABILIDADE@GMAIL.COM', 'escrita@supercabo.com.br', 'CONTATO@MTCONTABILIDADE.COM.BR', 'mfeletrocos@ig.com.br', 'contato@wacontabil.com.br', 'calegarifiscontabil@bol.com.br', 'FERNANDOESPETINHO@OUTLOOK.COM', 'leticia@phassessoriacontabil.com.br', 'escr.veronezi@uol.com.br', 'CASTLIN@TERRA.COM.BR', 'adailtonsilva14@gmail.com', 'CONTABILIDADE@SEVENCONTABIL.COM', 'surycata@uol.com.br', 'vergiliorodrigues@uol.com.br', 'vbborim@hotmail.com', 'AGROPECUARIACRISFAMA@HOTMAIL.COM', 'VICONT@UOL.COM.BR', 'processo@aldebarancontabil.com.br', 'escritoriorobertense@hotmail.com', 'contaudit@contaudit.com.br', 'CONTABILIDADEALIANCAIPERO@HOTMAIL.COM', 'jsav@ig.com.br', 'fajovi@ibest.com.br', 'EDINEIA.CAVALCANTE@GMAIL.COM', 'juliana.carpi@gmail.com', 'vieiracontabil@starmedia.com', 'conta@conta.com.br', 'paulino@paulino.com.br', 'daniel@andcontabilidade.com.br', 'ANILTON@VITECCONTABIL.COM.BR', 'beraldo@beraldoassociados.com.br', 'martelinho65@terra.com.br', 'vi.ana@itelefonica.com.br', 'CONFIANCACONTABIL@IG.COM.BR']</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>648f65ea769d90dba6f11dbe</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>['11107743', '11027469', '11124862', '11134568', '11140714', '11145308', '11150799', '11159973', '11163758', '21903087', '11171374', '11180318', '11185005', '11190284', '11194637', '11201897', '11204862', '11210882', '11218329', '20298770', '11232617', '11237176', '11241548', '11245839', '11253130', '09619012', '11269763', '11276943', '11282473', '11289787', '11293997', '11299132', '11306755', '20524416', '16096945', '19191457', '22936038', '11312721', '11320616', '11326612', '11331176', '11342205', '11227293', '11350905', '11355950', '11365653', '11371393', '20601447', '11380823', '11389929', '11396252', '11402758', '11407993', '20304692', '11419551', '11426773', '11433659', '11439057', '11444216', '11451115', '11464818', '11468783', '11478879', '11490807', '11493477', '11501496', '11506716', '11511277', '11516264', '11518945', '11528120', '11544144', '11550995', '11564703', '20309446', '11578001', '11587125', '11594698', '11601142', '11606136', '11611086', '11623805', '11632322', '20311594', '11647033', '11655050', '11661518', '11669150', '11678965', '11600321', '11687671', '11695091', '11703343', '11712209', '20314299', '11723968', '11728955', '11737353', '11744445', '11749506']</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>['0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001']</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>['81', '30', '42', '11', '11', '41', '19', '94', '67', '87', '96', '18', '52', '42', '82', '38', '52', '36', '40', '70', '59', '88', '40', '06', '52', '73', '59', '68', '45', '70', '31', '82', '35', '16', '99', '59', '03', '53', '66', '95', '42', '71', '60', '08', '55', '90', '66', '23', '06', '70', '06', '72', '37', '79', '00', '50', '58', '08', '62', '19', '81', '59', '06', '76', '72', '01', '81', '03', '19', '16', '82', '25', '80', '69', '00', '34', '86', '37', '20', '66', '05', '08', '70', '69', '44', '23', '92', '09', '54', '43', '99', '43', '39', '02', '66', '62', '86', '95', '00', '14']</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>['1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1']</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>['CRIS BOLSAS', 'DELTANET', 'OBA PRODUCOES', 'D J VARIEDADES', 'WARP COM', 'ETERNO DESEJO', 'ISOUZA INFORMATICA', 'SALA TRANSPORTES', 'A PRINCESINHA', 'NARIA CONFECCAO', 'MADEIREIRA M. BORGES', 'SAG CONFECCOES', 'F DAS CHAGAS PINTURAS', 'CONSTRUFORT', 'ATACADAO DO SOM', "DI'CHOCOLAT", 'VET LIFE', 'MERCADO VIANA', 'REAL MOVEIS', 'ROSA LINDA FASHION', 'N&amp;B SIMPLY', 'FJ CURSOS TECNOLOGIA', 'VIVIANE COMERCIO DE FLORES', 'PAPELARIA UTINGA', 'PALACIO DOS COLCHOES', 'REGINA KATSUE INFORMATICA', 'FADORE PRESENTES', 'QUEIROZ ARMARINHOS', 'MINIMERCADO', 'MERCANTIL ADRIANY', 'PADARIA E CONFEITARIA CIDADE JARDIM', 'LG MADEIREIRA', 'BELLACACIO HOTELARIA E ALOJAMENTO', 'POUSADA LITORAL', 'PISON BIJUTERIAS E ACESSORIOS', 'TOM EMBALAGENS', 'MOVEIS MARCENARIA', 'EWX IMPORTACAO', 'XIS DO ELVI', 'CANTINHO DO BICHO', 'ACQUA PLANET', 'DHARMATEC', 'BOUTIQUE ADRIANA PINHATA', 'IMPERIAL EXPRESS', 'ANTONIO CONFECCOES', 'AGROPECUARIA CRISFAMA', 'MOTO TAXI DOIS IRMAOS', 'JAFE', 'BAR DO BIGODE', 'SAKURA TEC', 'SUPERMERCADO BASTOS', 'RAIANE', 'FELIX BICICLETARIA E TINTAS EM GERAL', 'BV VEICULOS', 'SB SAUDE', 'DL DISTRIBUIDORA', 'SANTOS TRANSPORTE', 'RESTAURANTE RUBIO', 'NILSON IMOVEIS']</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['04', '04', '08', '08', '02', '02', '04', '04', '08', '08', '08', '08', '02', '08', '02', '08', '08', '04', '04', '02', '04', '08', '04', '08', '02', '02', '02', '08', '04', '04', '04', '02', '04', '02', '08', '08', '02', '08', '08', '04', '04', '04', '02', '04', '04', '04', '08', '02', '02', '04', '08', '04', '08', '08', '08', '08', '02', '04', '08', '08', '04', '02', '08', '08', '04', '04', '08', '04', '08', '02', '02', '08', '04', '02', '04', '08', '04', '08', '02', '02', '04', '08', '04', '08', '08', '04', '02', '02', '02', '02', '04', '08', '08', '08', '08', '04', '08', '04', '04', '02']</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['20181227', '20210326', '20121218', '20180219', '20090813', '20090916', '20210406', '20210226', '20110627', '20180217', '20200220', '20200930', '20090826', '20190604', '20090918', '20230203', '20140919', '20210218', '20181016', '20140522', '20181016', '20180724', '20210323', '20110901', '20210816', '20080505', '20090921', '20221201', '20210415', '20190104', '20210310', '20091110', '20210310', '20140630', '20210401', '20201117', '20150727', '20220808', '20230425', '20181009', '20190116', '20210226', '20091005', '20180918', '20181010', '20210415', '20160610', '20140708', '20091204', '20190201', '20171129', '20181219', '20210727', '20150529', '20151029', '20170204', '20091215', '20201029', '20180522', '20100616', '20210323', '20210112', '20181214', '20151214', '20220610', '20181214', '20151215', '20210419', '20230207', '20100201', '20100128', '20190321', '20210310', '20100203', '20210326', '20120803', '20181218', '20210716', '20100225', '20100219', '20210406', '20120830', '20210415', '20171214', '20210719', '20210419', '20091223', '20100225', '20100303', '20100218', '20180918', '20120921', '20101210', '20100916', '20141212', '20190329', '20100625', '20181107', '20210310', '20100317']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['63', '63', '01', '01', '00', '00', '63', '63', '01', '01', '01', '01', '00', '01', '00', '01', '01', '63', '63', '00', '63', '01', '63', '01', '00', '00', '00', '01', '63', '63', '63', '00', '63', '00', '01', '01', '00', '01', '01', '63', '63', '63', '00', '63', '63', '63', '01', '00', '00', '63', '01', '63', '01', '01', '01', '01', '00', '63', '01', '01', '63', '00', '01', '01', '63', '63', '01', '63', '01', '00', '00', '01', '63', '00', '63', '01', '63', '01', '00', '00', '63', '01', '63', '01', '66', '63', '00', '00', '00', '00', '63', '54', '01', '01', '01', '63', '01', '63', '63', '00']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>['20090818', '20090724', '20090814', '20090820', '20090813', '20090916', '20090904', '20090917', '20090922', '20150220', '20090923', '20090914', '20090826', '20090923', '20090918', '20091006', '20091007', '20091007', '20091009', '20140522', '20090910', '20091002', '20090914', '20090918', '20091008', '20080505', '20090921', '20091016', '20091023', '20091030', '20091022', '20091110', '20091028', '20140630', '20120706', '20131104', '20150727', '20091109', '20090925', '20091118', '20091109', '20091116', '20091005', '20090911', '20091021', '20090921', '20091104', '20140708', '20091204', '20091125', '20091124', '20091113', '20091207', '20140523', '20091217', '20091228', '20091215', '20100104', '20091223', '20100105', '20100108', '20091201', '20100114', '20091214', '20091210', '20100128', '20100127', '20091126', '20100127', '20100201', '20100128', '20100127', '20100201', '20100203', '20140523', '20100218', '20100212', '20100217', '20100225', '20100219', '20091215', '20100113', '20100211', '20140523', '20100305', '20100222', '20091223', '20100225', '20100303', '20100218', '20100219', '20100311', '20100309', '20100309', '20140523', '20100309', '20100218', '20100319', '20100204', '20100317']</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>['4721102', '4782202', '4742300', '9329804', '5611203', '5611204', '4712100', '4520007', '4763601', '9511800', '4781400', '4930202', '9511800', '4930202', '5223100', '4782201', '4781400', '1610203', '4781400', '8599605', '4330403', '9313100', '1531902', '4729699', '4744004', '4649402', '4617600', '4789001', '5611203', '7500100', '4782201', '4712100', '4754701', '4781400', '7319003', '8599603', '1412601', '4789002', '4781400', '4789007', '4755503', '6201501', '4759899', '4530703', '4721102', '3831901', '4755503', '4712100', '4723700', '4712100', '4721102', '4744002', '8230001', '5510801', '5510801', '1813001', '8541400', '4789001', '8593700', '4789099', '7729202', '4744002', '8291100', '3101200', '4744099', '4742300', '4744099', '4772500', '5611203', '6920601', '5611204', '4789004', '4753900', '6319400', '3314710', '4781400', '4511102', '5320202', '4781400', '4789004', '4744099', '7722500', '4761002', '4923001', '4621400', '5611201', '4322301', '4712100', '6209100', '8211300', '4712100', '4763603', '4753900', '4512901', '8650004', '4649499', '4721102', '4930202', '5611203', '6821801']</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>['4781400', '4321500', '4723700,5611203,9511800', '4781400', '4712100,9329803,9001906,7739003', '4530703', '4713002', '3212400', '4772500', '8599699,6190699,4751201,4321500', '4929902', '9609299', '4755503,4782201', '4330404', '4763602', '4781400', '4399103', '4618401', '4772500', '5611204', '4771704,4789004', '4755503,4781400,4763601,4782201,4784900,6619302', '4755503', '5320202,4763601,4772500,8219999', '4713004', '4754702,4754701,4782202,4781400,4782201', '4755502,4761003,4789001,4763601', '4520001,4530704', '3831999,3832700,3839499', '4755502', '4722901,4789004', '4782201,4772500,4723700,4724500,4755502,4744099', '4781400', '4723700,4729699,4789099', '4744099,4329199', '4754701,9529105', '4744001,4744099', '4744001,4120400,4110700', '4781400,4789001', '5620102,8230002', '5611203', '4771704', '6202300,6201501', '4789099', '4511101,4520001', '4930202,5211799,5320201', '4755502,4755503,4782201', '4771704,4763604', '4753900,4759899,4762800', '4713002,4761001,4781400', '1081301,4632001', '5611203,5611204,4723700,4712100,5620104', '4759899', '8599604,7020400,7490104', '9529104,4741500', '4751201,4752100', '4512902,4511102,4511101', '4618402,4618401', '4686902,4647801,4669999,4689399,4651601,4642701,4643501,4649404,4679699,4673700,4649401,4635401,4789007,4721104,4723700,4741500,4744001,4751201,4752100,4742300,4744099,4713002,4782201,4781400,4754701,4753900,7733100', '6821802']</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>['AVENIDA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA', 'ESTRADA', 'AVENIDA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'ALAMEDA', 'RUA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'TRAVESSA', 'RUA', 'AVENIDA', 'RUA', 'PRACA', 'AVENIDA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'ESTRADA MUNICIPAL', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RODOVIA', 'RUA', 'RUA', 'AVENIDA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA']</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>['LEOMIL', 'SVAA EVANS', 'DOUTOR ALVARO RIBEIRO', 'MARQUES DO HERVAL', 'PASCHOAL CARLOS MAGNO', 'PRESIDENTE ANTONIO CARLOS', 'JACQUES COELHO DA SILVA', 'M BOI MIRIM, DO', 'ANTONIO CASTILHO', 'CASTRO ALVES', 'BARAO HOMEM DE MELO', 'ANTONIO  MAGRIM', 'SANTA IFIGENIA', 'FLORIANO PEIXOTO', 'MATEUS GROU', 'JOANA ANGELICA', 'C', 'GOV. JOAO PONCE DE ARRUDA', 'BRESSER', 'OLIVEIRA LIMA', 'PASTORIL DE ALMENARA', 'OCTAVIA PORTO RODRIGUES', 'GILBERTO AGUIAR', 'JOAO MOURA', 'SAO PAULO', 'LUIS DOMINGUES', 'SENADOR ROBERTO SIMONSEN', 'RUA GENERAL GLICERIO', ' DOS  JACARANDAS', 'LAVAPES', 'SANTA TEREZINHA', 'ANITA GARIBALDE', 'SETE DE SETEMBRO', 'PAULO FRANCO WERNECK', 'MARIO CALDERARO', 'JUA MIRIM', 'SILVERIO FURQUIM', 'CONRADO CALDEIRA BRANT', 'FREI GASPAR', 'VISCONDE DE UTINGA', 'ARI RODRIGUES', 'FREIRE FARTO', 'JOAO CALTABIANO', 'FRANCISCO MADIA', 'ERNESTO PEDRO CROZETA', 'PDE. JEREMIAS JOSE NOGUEIRA', 'ROUXINOL', 'MIMOSO DO SUL', 'DAS LARANJEIRAS', 'ABILIO GAMA', 'ITUVERAVA', 'QUARENTENARIO', 'PINDORAMA', 'NOSSA SENHORA APARECIDA', 'LIDIO MARTINS CORREIA', 'ESPIRITO SANTO', 'JOSE URBANO SANCHES', 'OLEGARIO MACIEL', 'PADRE ROQUE', 'JERONIMO SOUTO MAIOR', 'DOLORES MACIEL ALMEIDA', 'DOUTOR ARMANDO PANNUNZIO', 'DOS POTIGUARES', 'BARRA DOS BANDEIRANTES', 'VISCONDE DE NITEROI', 'PANORAMA', 'BARONESA DO CERRO AZUL', 'SAO ROQUE', 'PADRE NELSON ANTONIO ROMAO', 'MORRO AGUDO', 'BORGES DE MEDEIROS', 'JOSE CARLOS DOS SANTOS', 'DOUTOR SALES DE OLIVEIRA', 'ZERILLO PEREIRA LOPES', 'CRISTALINA', 'TIJUCO PRETO', 'THEDA FIGUEIREDO REGA', 'URUGUAIANA', 'VER. ACYR JOSE DAMASCENO, 4303', 'TREZE DE MAIO', 'DUARTE DA COSTA', 'CIDADE JARDIM', 'SANTA TEREZINHA', 'CAIOBA', 'LINHA 12, KM 08', 'BENEDITO PIRES RODRIGUES', 'PAULO JACINTO', 'RAIMUNDO JOSE PEREIRA', 'QUINZE DE NOVEMBRO', 'SEPETIBA', 'PAULO MANZANO CASTILHO', 'INDIO TIBIRICA', 'DAS HORTENCIAS', 'GENERAL OSORIO', 'TANCREDO NEVES', 'VITORIA', 'PROFESSOR ANTONIO RUETE', 'ADAIR BEZERRA PEREIRA', 'NUNO ALVARES PEREIRA', 'CONEGO VALADAO']</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>['190', '127', '732', '268', '188', '26', '305', '4801', 'SN', '537', '55', '624', '574', '1706', '109', '938', '333', '330', '601', '833', '9', '270 E', '821', '458', '305', '1425', '123', '517', '20', '130', '588', 'SN', '599', '553', '612', '350', '118', '29', '2595', '259', '228', '138', '410', '448', '356', '412', '67', '112', '4-125', '2377', '121', '1995', '171', '142', '607', '664', '568', '306', '491', '20', '591', '1144', '2554', '886', '414', '229', '299', '20', '1547', '26', '1536', '110', '380', '477', '438', '172', '225', '405', '4303', '877', '737', '4.252', '80', '757', 'S/N', '45', '173', '370', '189', '614', '125', '2639', '1582', '312', '620', '1 E 2', '310', '213', '193', '591']</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>['      200', ': COMERCIO;', 'CASA  1', 'TERREO', 'LOJA: 17;', 'ANDAR 2;SALA 14', 'EDIF', 'LOJA: 1;', '      CONJ. 18', 'CXPST 13', '      272', 'TERREO                    CONJ  21', '      SALA D', '      TERREO', 'APT 1012 B', 'CASA CASA', '      .', 'EDIF;', 'LOJA: 08;', 'SALA  03', 'LOTE: 9; QUADRA: I;', 'SALA  11', 'CASA', '      SALA 04', 'CASA  41', 'CONJ  74-A', 'LOJA  03', '      BOM SUCESSO', 'SALA  08', 'SALA  2', 'COND  MUNDO PLAZA         SALA  517 E 518', 'LOJA;']</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>['CENTRO', 'JD. PRES. DUTRA', 'JARDIM RUBI', 'CENTRO', 'JARDIM MONTE CRISTO/PARQUE OZIEL', 'CENTRO', 'JARDIM NOVA ALVORADA', 'JARDIM REGINA', 'CENTRO', 'JARDIM AMANDA II', 'NOVA GRANADA', 'JOAO FLAVIO', 'SANTA EFIGENIA', 'VILA TAMOIO', 'PINHEIROS', 'NAZARE', 'INDEPENDENCIA (BARREIRO)', 'SETRO INDUSTRIAL', 'BRAS', 'SOLEDADE', 'PARQUE PAN AMERICANO', 'GALO BRANCO', 'JARDIM PAULISTANO II', 'PINHEIROS', 'CENTRO', 'CENTRO', 'JARDIM NOVO MUNDO', 'CENTRO', 'JARDIM PRIMAVERAS', 'CENTRO', 'VILA BANDEIRANTES', 'CAMPO BOM', 'CENTRO', 'CENTRO', 'ENGENHO DE DENTRO', 'JARDIM PEDRA BRANCA', 'JARDIM DAS TULIPAS', 'VILA MARARI', 'PARQUE SAO VICENTE', 'CENTRO', 'AEROPORTO VELHO', 'JABAQUARA', 'CENTRO', 'CIDADE JARDIM', 'JD KELI CRISTINA', 'SAO SEBASTIAO', 'PORTAL LARANJEIRAS', 'SAO TOME', 'NUCLEO RESIDENCIAL PRESIDENTE GEISEL', 'FORTALEZA', 'CIDADE JARDIM', 'JARDIM QUARENTENARIO', 'VILA MOTTA', 'CENTRO', 'VILA ZILDA', 'CENTRO', 'VILA OLIVEIRA', 'CENTRO', 'CENTRO', 'VILA NINA', 'JARDIM DOUTOR ANTONIO PETRAGLIA', 'JARDIM VERA CRUZ', 'NOSSA SENHORA DE NAZARE', 'MANGABEIRA', 'SAO  CRISTOVAO', 'JARDIM STO AFONSO', 'PRAIA DE LESTE', 'CENTRO', 'NOVA MATAO', 'BOM CLIMA', 'CENTRO', 'CENTRO', 'VILA INDUSTRIAL', 'ALTO TAQUARAL', 'CIDADE PARQUE BRASILIA', 'TATUAPE', 'BEL JARDIM', 'BOSQUE', 'CENTRO', 'CENTRO', 'PARQUE IMPERIAL / MUTINGA', 'BOSQUE DOS EUCALIPTOS', 'ROBERTO', 'MODULO 5', 'ZONA RURAL', 'VILA SANTO ANTONIO', 'CIDADE PARQUE BRASILIA (JARDIM PRESIDENTE DUTRA)', 'PARURU', 'CENTRO', 'VILA ROMANA', 'JARDIM LEME', 'ITRAPOA', 'VILA HELENA', 'CENTRO', 'CAMINHO DAS ARVORES', 'MARCILIO DE NORONHA', 'NOVA JABOTICABAL', 'FRANCISCO DE PAULA', 'VILA NOGUEIRA', 'GOPOUVA']</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>['11410160', '07171220', '06502181', '13990000', '13049117', '35430003', '13190000', '04948030', '78587000', '13188210', '30431285', '14415000', '01207000', '14815000', '05415050', '40050000', '30666640', '78320000', '03017000', '50050390', '02993040', '12247600', '14402410', '05412001', '18490000', '65901430', '12906330', '16010080', '14820000', '13480760', '16203094', '88715000', '16600019', '25780000', '20735330', '08490800', '13212631', '04403170', '11340000', '55500000', '69903560', '04343120', '12580000', '18055440', '83609400', '13690000', '07700001', '94465400', '17033000', '68300000', '13050412', '11347520', '15804060', '35970000', '11436010', '36010041', '08780220', '35300365', '13800033', '02834090', '14409135', '18050000', '59062280', '44056532', '20941000', '07215150', '83255000', '18550000', '15990590', '07196290', '99260000', '15830000', '13035270', '13087757', '07243080', '03316000', '06243020', '13026001', '76867000', '14940166', '06462120', '12233002', '15835000', '78320000', '76934000', '18560000', '07243130', '18150000', '06501145', '05052000', '06773140', '09442000', '09175500', '95720000', '41820020', '29130010', '14887032', '14180000', '13088020', '07040000']</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>['SP', 'SP', 'SP', 'SP', 'SP', 'MG', 'SP', 'SP', 'MT', 'SP', 'MG', 'SP', 'SP', 'SP', 'SP', 'BA', 'MG', 'MT', 'SP', 'PE', 'SP', 'SP', 'SP', 'SP', 'SP', 'MA', 'SP', 'SP', 'SP', 'SP', 'SP', 'SC', 'SP', 'RJ', 'RJ', 'SP', 'SP', 'SP', 'SP', 'PE', 'AC', 'SP', 'SP', 'SP', 'PR', 'SP', 'SP', 'RS', 'SP', 'PA', 'SP', 'SP', 'SP', 'MG', 'SP', 'MG', 'SP', 'MG', 'SP', 'SP', 'SP', 'SP', 'RN', 'BA', 'RJ', 'SP', 'PR', 'SP', 'SP', 'SP', 'RS', 'SP', 'SP', 'SP', 'SP', 'SP', 'SP', 'SP', 'RO', 'SP', 'SP', 'SP', 'SP', 'MT', 'RO', 'SP', 'SP', 'SP', 'SP', 'SP', 'SP', 'SP', 'SP', 'RS', 'BA', 'ES', 'SP', 'SP', 'SP', 'SP']</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>['6475', '6477', '7047', '6865', '6291', '5041', '6737', '7107', '1034', '2951', '4123', '6827', '7107', '6487', '7107', '3849', '4123', '9831', '7107', '2531', '7107', '7099', '6425', '7107', '6201', '0803', '6251', '6155', '6133', '6639', '6229', '8173', '6879', '6009', '6001', '7107', '6619', '7107', '7121', '2403', '0139', '7107', '6987', '7145', '7481', '6375', '6281', '8963', '6219', '0461', '6291', '7121', '6323', '4107', '6475', '4733', '6713', '4267', '6717', '7107', '6425', '7145', '1761', '3515', '6001', '6477', '0870', '6239', '6687', '6477', '8595', '6863', '6291', '6291', '6477', '7107', '6789', '6291', '0024', '6493', '6213', '7099', '6863', '9831', '0699', '6521', '6477', '6495', '7047', '7107', '7157', '6967', '7057', '8669', '3849', '5701', '6587', '6905', '6291', '6477']</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>['13', '11', '11', '19', '19', '31', '19', '11', '66', '19', '31', '16', '11', '16', '11', '71', '31', '66', '11', '81', '11', '12', '16', '11', '15', '99', '11', '18', '16', '19', '18', '48', '14', '24', '22', '11', '11', '11', '13', '81', '68', '11', '12', '15', '41', '19', '11', '51', '14', '91', '19', '13', '17', '31', '13', '32', '11', '33', '19', '11', '16', '15', '84', '75', '21', '11', '41', '15', '16', '11', '54', '17', '19', '19', '11', '11', '11', '19', '69', '16', '11', '12', '17', '66', '69', '15', '11', '15', '11', '11', '11', '11', '11', '54', '71', '27', '16', '16', '19', '11']</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>['32298888', '24314434', '94906167', '36511209', '32289811', '38811695', '38791705', '33136533', '35251525', '98271309', '32713208', '31451390', '66952383', '33431137', '38720122', '91963478', '33844529', '35661322', '34499802', '32230063', '36214094', '39416366', '30174689', '92612131', '35651164', '35246694', '34047760', '36225018', '33923667', '34414401', '36441516', '36243289', '35224168', '92029728', '81189884', '54860036', '45821710', '55896735', '32897927', '35342611', '32245538', '25781266', '36461303', '34114484', '30166068', '35834413', '96793007', '30457426', '97557823', '37831453', '32672821', '30148032', '35221328', '38526756', '33521035', '32413542', '47997200', '33216722', '38622487', '39895830', '31451440', '21044659', '32061646', '36145933', '78290320', '20800101', '34232383', '32632700', '33849192', '20870748', '33471209', '35721460', '32695674', '32964440', '42158285', '20810367', '35997571', '38716545', '35251091', '33414405', '41917501', '39333000', '35731198', '96146292', '36232141', '32664462', '24343436', '32891329', '42808241', '36452369', '42455748', '48239102', '44330980', '91747000', '30210040', '33361790', '92195188', '39535831', '92672958', '23046369']</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>['11', '31', '31', '16', '71', '15', '11', '68', '41', '14', '13', '13', '84', '11', '11', '12', '66', '15', '11', '11', '11', '71', '11']</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>['24314434', '38172109', '92050710', '33432571', '32436202', '35651076', '55896735', '84162327', '30922020', '98557823', '32194664', '33521840', '41414623', '24793280', '24804598', '39344400', '96146292', '32661629', '87514098', '42455748', '44330980', '30210062', '49656604']</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>['11', '19', '31', '31', '16', '16', '11', '71', '16', '15', '16', '48', '11', '68', '14', '91', '13', '31', '13', '33', '16', '15', '84', '41', '11', '17', '11', '11', '19', '16', '12', '66', '15', '11', '11', '11', '11']</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>['24314434', '36511209', '38172109', '32713208', '31451390', '33431137', '27490124', '32436202', '37213496', '35651926', '33923667', '36241045', '22769910', '32245538', '32321689', '37831453', '32194664', '38526756', '33521840', '33216709', '31451440', '32113575', '32061646', '34232383', '24793280', '35721460', '20810367', '35997571', '38716545', '33427058', '39311200', '35667500', '32664462', '24343436', '36060538', '42455748', '44330984']</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>['f.m@uol.com.br', 'contabilidade@contabilmc.com.br', 'mserrat.ops@terra.com.br', 'escritsantacecilia@terra.com.br.', 'oliveira.aure@gmail.com', 'MM@PONTENET.COM.BR', 'murniek@interall.com.br', 'aline@lopesassessoria.com.br', 'dj_variedades@hotmail.com', 'warp_sys@hotmail.com', 'ETERNO.DESEJO@HOTMAIL.COM', 'valmirafliporoni@hotmail.com.br', 'ATENDIMENTO@ISOUZA.COM', 'organizacaofiscaluuniao@yahoo.com.br', 'esc.atlantida@uol.com.br', 'TARCISIOITA@IG.COM.BR', 'DEPTOCONTRATOS@CONTABILCERTA.COM.BR', 'grupo.virtu@ig.com.br', 'DIREITOCRIMINAL@HOTMAIL.COM', 'conthabilsjoao@ig.com.br', 'salgueiromoura@directnet.com.br', 'ESCRITORIOCONTADOR@HOTMAIL.COM', 'bgiosa@yahoo.com', 'gilulo@uol.com.br', 'CONTROLLIZAIAS@GMAIL.COM', 'vargascamila@gmail.com', 'invicta2@terra.com.br', 'escr.brasiliense@terra.com.br', 'gvambrosecchia@ig.com.br', 'olivermas@terra.com.br', 'escpaulista@uol.com.br', 'WILLIAN.SOUZAWF@YAHOO.COM.BR', 'NBDANY@HOTMAIL.COM', 'JANDERSON_BELO@YAHOO.COM.BR', 'climoreira25@gmail.com', 'efcfcont@hotmail.com', 'depauladom@uol.com.br', 'lelis.jose@terra.com.br', 'escritoriolg.cerrado@gmail.com', 'larissaangelo@terra.com.br', 'conthabilsjoao@ig.com.br', 'MINI.MERCADOFARROUPILHA@GMAIL.COM', 'ROBERGALVANI@HOTMAIL.COM', 'fcc3@bol.com.br', 'decymarcont@uol.com.br', 'asseccontabil@hotmail.com', 'oliani@terra.com.br', 'GABRIELARCANJO.VISAO@GMAIL.COM', 'contpirani@terra.com.br', 'MARCIO.MATTA@CLICK21.COM.BR', 'sintese@sintesecontabilidade.com.br', 'EVIDENCIAR@UOL.COM.BR', 'escritmc@terra.com.br', 'tagal@terra.com.br', 'mayra_consuelo@hotmail.com', 'ADMJCONTABILIDADE@GMAIL.COM', 'escrita@supercabo.com.br', 'CONTATO@MTCONTABILIDADE.COM.BR', 'mfeletrocos@ig.com.br', 'contato@wacontabil.com.br', 'calegarifiscontabil@bol.com.br', 'FERNANDOESPETINHO@OUTLOOK.COM', 'leticia@phassessoriacontabil.com.br', 'escr.veronezi@uol.com.br', 'CASTLIN@TERRA.COM.BR', 'adailtonsilva14@gmail.com', 'CONTABILIDADE@SEVENCONTABIL.COM', 'surycata@uol.com.br', 'vergiliorodrigues@uol.com.br', 'vbborim@hotmail.com', 'AGROPECUARIACRISFAMA@HOTMAIL.COM', 'VICONT@UOL.COM.BR', 'processo@aldebarancontabil.com.br', 'escritoriorobertense@hotmail.com', 'contaudit@contaudit.com.br', 'CONTABILIDADEALIANCAIPERO@HOTMAIL.COM', 'jsav@ig.com.br', 'fajovi@ibest.com.br', 'EDINEIA.CAVALCANTE@GMAIL.COM', 'juliana.carpi@gmail.com', 'vieiracontabil@starmedia.com', 'conta@conta.com.br', 'paulino@paulino.com.br', 'daniel@andcontabilidade.com.br', 'ANILTON@VITECCONTABIL.COM.BR', 'beraldo@beraldoassociados.com.br', 'martelinho65@terra.com.br', 'vi.ana@itelefonica.com.br', 'CONFIANCACONTABIL@IG.COM.BR']</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>648f6645349c16d98afe641a</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>['11107743', '11027469', '11124862', '11134568', '11140714', '11145308', '11150799', '11159973', '11163758', '21903087', '11171374', '11180318', '11185005', '11190284', '11194637', '11201897', '11204862', '11210882', '11218329', '20298770', '11232617', '11237176', '11241548', '11245839', '11253130', '09619012', '11269763', '11276943', '11282473', '11289787', '11293997', '11299132', '11306755', '20524416', '16096945', '19191457', '22936038', '11312721', '11320616', '11326612', '11331176', '11342205', '11227293', '11350905', '11355950', '11365653', '11371393', '20601447', '11380823', '11389929', '11396252', '11402758', '11407993', '20304692', '11419551', '11426773', '11433659', '11439057', '11444216', '11451115', '11464818', '11468783', '11478879', '11490807', '11493477', '11501496', '11506716', '11511277', '11516264', '11518945', '11528120', '11544144', '11550995', '11564703', '20309446', '11578001', '11587125', '11594698', '11601142', '11606136', '11611086', '11623805', '11632322', '20311594', '11647033', '11655050', '11661518', '11669150', '11678965', '11600321', '11687671', '11695091', '11703343', '11712209', '20314299', '11723968', '11728955', '11737353', '11744445', '11749506']</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>['0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001', '0001']</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>['81', '30', '42', '11', '11', '41', '19', '94', '67', '87', '96', '18', '52', '42', '82', '38', '52', '36', '40', '70', '59', '88', '40', '06', '52', '73', '59', '68', '45', '70', '31', '82', '35', '16', '99', '59', '03', '53', '66', '95', '42', '71', '60', '08', '55', '90', '66', '23', '06', '70', '06', '72', '37', '79', '00', '50', '58', '08', '62', '19', '81', '59', '06', '76', '72', '01', '81', '03', '19', '16', '82', '25', '80', '69', '00', '34', '86', '37', '20', '66', '05', '08', '70', '69', '44', '23', '92', '09', '54', '43', '99', '43', '39', '02', '66', '62', '86', '95', '00', '14']</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>['1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1']</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>['CRIS BOLSAS', 'DELTANET', 'OBA PRODUCOES', 'D J VARIEDADES', 'WARP COM', 'ETERNO DESEJO', 'ISOUZA INFORMATICA', 'SALA TRANSPORTES', 'A PRINCESINHA', 'NARIA CONFECCAO', 'MADEIREIRA M. BORGES', 'SAG CONFECCOES', 'F DAS CHAGAS PINTURAS', 'CONSTRUFORT', 'ATACADAO DO SOM', "DI'CHOCOLAT", 'VET LIFE', 'MERCADO VIANA', 'REAL MOVEIS', 'ROSA LINDA FASHION', 'N&amp;B SIMPLY', 'FJ CURSOS TECNOLOGIA', 'VIVIANE COMERCIO DE FLORES', 'PAPELARIA UTINGA', 'PALACIO DOS COLCHOES', 'REGINA KATSUE INFORMATICA', 'FADORE PRESENTES', 'QUEIROZ ARMARINHOS', 'MINIMERCADO', 'MERCANTIL ADRIANY', 'PADARIA E CONFEITARIA CIDADE JARDIM', 'LG MADEIREIRA', 'BELLACACIO HOTELARIA E ALOJAMENTO', 'POUSADA LITORAL', 'PISON BIJUTERIAS E ACESSORIOS', 'TOM EMBALAGENS', 'MOVEIS MARCENARIA', 'EWX IMPORTACAO', 'XIS DO ELVI', 'CANTINHO DO BICHO', 'ACQUA PLANET', 'DHARMATEC', 'BOUTIQUE ADRIANA PINHATA', 'IMPERIAL EXPRESS', 'ANTONIO CONFECCOES', 'AGROPECUARIA CRISFAMA', 'MOTO TAXI DOIS IRMAOS', 'JAFE', 'BAR DO BIGODE', 'SAKURA TEC', 'SUPERMERCADO BASTOS', 'RAIANE', 'FELIX BICICLETARIA E TINTAS EM GERAL', 'BV VEICULOS', 'SB SAUDE', 'DL DISTRIBUIDORA', 'SANTOS TRANSPORTE', 'RESTAURANTE RUBIO', 'NILSON IMOVEIS']</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['04', '04', '08', '08', '02', '02', '04', '04', '08', '08', '08', '08', '02', '08', '02', '08', '08', '04', '04', '02', '04', '08', '04', '08', '02', '02', '02', '08', '04', '04', '04', '02', '04', '02', '08', '08', '02', '08', '08', '04', '04', '04', '02', '04', '04', '04', '08', '02', '02', '04', '08', '04', '08', '08', '08', '08', '02', '04', '08', '08', '04', '02', '08', '08', '04', '04', '08', '04', '08', '02', '02', '08', '04', '02', '04', '08', '04', '08', '02', '02', '04', '08', '04', '08', '08', '04', '02', '02', '02', '02', '04', '08', '08', '08', '08', '04', '08', '04', '04', '02']</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>['20181227', '20210326', '20121218', '20180219', '20090813', '20090916', '20210406', '20210226', '20110627', '20180217', '20200220', '20200930', '20090826', '20190604', '20090918', '20230203', '20140919', '20210218', '20181016', '20140522', '20181016', '20180724', '20210323', '20110901', '20210816', '20080505', '20090921', '20221201', '20210415', '20190104', '20210310', '20091110', '20210310', '20140630', '20210401', '20201117', '20150727', '20220808', '20230425', '20181009', '20190116', '20210226', '20091005', '20180918', '20181010', '20210415', '20160610', '20140708', '20091204', '20190201', '20171129', '20181219', '20210727', '20150529', '20151029', '20170204', '20091215', '20201029', '20180522', '20100616', '20210323', '20210112', '20181214', '20151214', '20220610', '20181214', '20151215', '20210419', '20230207', '20100201', '20100128', '20190321', '20210310', '20100203', '20210326', '20120803', '20181218', '20210716', '20100225', '20100219', '20210406', '20120830', '20210415', '20171214', '20210719', '20210419', '20091223', '20100225', '20100303', '20100218', '20180918', '20120921', '20101210', '20100916', '20141212', '20190329', '20100625', '20181107', '20210310', '20100317']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['63', '63', '01', '01', '00', '00', '63', '63', '01', '01', '01', '01', '00', '01', '00', '01', '01', '63', '63', '00', '63', '01', '63', '01', '00', '00', '00', '01', '63', '63', '63', '00', '63', '00', '01', '01', '00', '01', '01', '63', '63', '63', '00', '63', '63', '63', '01', '00', '00', '63', '01', '63', '01', '01', '01', '01', '00', '63', '01', '01', '63', '00', '01', '01', '63', '63', '01', '63', '01', '00', '00', '01', '63', '00', '63', '01', '63', '01', '00', '00', '63', '01', '63', '01', '66', '63', '00', '00', '00', '00', '63', '54', '01', '01', '01', '63', '01', '63', '63', '00']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>['20090818', '20090724', '20090814', '20090820', '20090813', '20090916', '20090904', '20090917', '20090922', '20150220', '20090923', '20090914', '20090826', '20090923', '20090918', '20091006', '20091007', '20091007', '20091009', '20140522', '20090910', '20091002', '20090914', '20090918', '20091008', '20080505', '20090921', '20091016', '20091023', '20091030', '20091022', '20091110', '20091028', '20140630', '20120706', '20131104', '20150727', '20091109', '20090925', '20091118', '20091109', '20091116', '20091005', '20090911', '20091021', '20090921', '20091104', '20140708', '20091204', '20091125', '20091124', '20091113', '20091207', '20140523', '20091217', '20091228', '20091215', '20100104', '20091223', '20100105', '20100108', '20091201', '20100114', '20091214', '20091210', '20100128', '20100127', '20091126', '20100127', '20100201', '20100128', '20100127', '20100201', '20100203', '20140523', '20100218', '20100212', '20100217', '20100225', '20100219', '20091215', '20100113', '20100211', '20140523', '20100305', '20100222', '20091223', '20100225', '20100303', '20100218', '20100219', '20100311', '20100309', '20100309', '20140523', '20100309', '20100218', '20100319', '20100204', '20100317']</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>['4721102', '4782202', '4742300', '9329804', '5611203', '5611204', '4712100', '4520007', '4763601', '9511800', '4781400', '4930202', '9511800', '4930202', '5223100', '4782201', '4781400', '1610203', '4781400', '8599605', '4330403', '9313100', '1531902', '4729699', '4744004', '4649402', '4617600', '4789001', '5611203', '7500100', '4782201', '4712100', '4754701', '4781400', '7319003', '8599603', '1412601', '4789002', '4781400', '4789007', '4755503', '6201501', '4759899', '4530703', '4721102', '3831901', '4755503', '4712100', '4723700', '4712100', '4721102', '4744002', '8230001', '5510801', '5510801', '1813001', '8541400', '4789001', '8593700', '4789099', '7729202', '4744002', '8291100', '3101200', '4744099', '4742300', '4744099', '4772500', '5611203', '6920601', '5611204', '4789004', '4753900', '6319400', '3314710', '4781400', '4511102', '5320202', '4781400', '4789004', '4744099', '7722500', '4761002', '4923001', '4621400', '5611201', '4322301', '4712100', '6209100', '8211300', '4712100', '4763603', '4753900', '4512901', '8650004', '4649499', '4721102', '4930202', '5611203', '6821801']</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>['4781400', '4321500', '4723700,5611203,9511800', '4781400', '4712100,9329803,9001906,7739003', '4530703', '4713002', '3212400', '4772500', '8599699,6190699,4751201,4321500', '4929902', '9609299', '4755503,4782201', '4330404', '4763602', '4781400', '4399103', '4618401', '4772500', '5611204', '4771704,4789004', '4755503,4781400,4763601,4782201,4784900,6619302', '4755503', '5320202,4763601,4772500,8219999', '4713004', '4754702,4754701,4782202,4781400,4782201', '4755502,4761003,4789001,4763601', '4520001,4530704', '3831999,3832700,3839499', '4755502', '4722901,4789004', '4782201,4772500,4723700,4724500,4755502,4744099', '4781400', '4723700,4729699,4789099', '4744099,4329199', '4754701,9529105', '4744001,4744099', '4744001,4120400,4110700', '4781400,4789001', '5620102,8230002', '5611203', '4771704', '6202300,6201501', '4789099', '4511101,4520001', '4930202,5211799,5320201', '4755502,4755503,4782201', '4771704,4763604', '4753900,4759899,4762800', '4713002,4761001,4781400', '1081301,4632001', '5611203,5611204,4723700,4712100,5620104', '4759899', '8599604,7020400,7490104', '9529104,4741500', '4751201,4752100', '4512902,4511102,4511101', '4618402,4618401', '4686902,4647801,4669999,4689399,4651601,4642701,4643501,4649404,4679699,4673700,4649401,4635401,4789007,4721104,4723700,4741500,4744001,4751201,4752100,4742300,4744099,4713002,4782201,4781400,4754701,4753900,7733100', '6821802']</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>['AVENIDA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA', 'ESTRADA', 'AVENIDA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'ALAMEDA', 'RUA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'TRAVESSA', 'RUA', 'AVENIDA', 'RUA', 'PRACA', 'AVENIDA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'AVENIDA', 'RUA', 'RUA', 'ESTRADA MUNICIPAL', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RUA', 'RODOVIA', 'RUA', 'RUA', 'AVENIDA', 'AVENIDA', 'RUA', 'RUA', 'RUA', 'RUA']</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>['LEOMIL', 'SVAA EVANS', 'DOUTOR ALVARO RIBEIRO', 'MARQUES DO HERVAL', 'PASCHOAL CARLOS MAGNO', 'PRESIDENTE ANTONIO CARLOS', 'JACQUES COELHO DA SILVA', 'M BOI MIRIM, DO', 'ANTONIO CASTILHO', 'CASTRO ALVES', 'BARAO HOMEM DE MELO', 'ANTONIO  MAGRIM', 'SANTA IFIGENIA', 'FLORIANO PEIXOTO', 'MATEUS GROU', 'JOANA ANGELICA', 'C', 'GOV. JOAO PONCE DE ARRUDA', 'BRESSER', 'OLIVEIRA LIMA', 'PASTORIL DE ALMENARA', 'OCTAVIA PORTO RODRIGUES', 'GILBERTO AGUIAR', 'JOAO MOURA', 'SAO PAULO', 'LUIS DOMINGUES', 'SENADOR ROBERTO SIMONSEN', 'RUA GENERAL GLICERIO', ' DOS  JACARANDAS', 'LAVAPES', 'SANTA TEREZINHA', 'ANITA GARIBALDE', 'SETE DE SETEMBRO', 'PAULO FRANCO WERNECK', 'MARIO CALDERARO', 'JUA MIRIM', 'SILVERIO FURQUIM', 'CONRADO CALDEIRA BRANT', 'FREI GASPAR', 'VISCONDE DE UTINGA', 'ARI RODRIGUES', 'FREIRE FARTO', 'JOAO CALTABIANO', 'FRANCISCO MADIA', 'ERNESTO PEDRO CROZETA', 'PDE. JEREMIAS JOSE NOGUEIRA', 'ROUXINOL', 'MIMOSO DO SUL', 'DAS LARANJEIRAS', 'ABILIO GAMA', 'ITUVERAVA', 'QUARENTENARIO', 'PINDORAMA', 'NOSSA SENHORA APARECIDA', 'LIDIO MARTINS CORREIA', 'ESPIRITO SANTO', 'JOSE URBANO SANCHES', 'OLEGARIO MACIEL', 'PADRE ROQUE', 'JERONIMO SOUTO MAIOR', 'DOLORES MACIEL ALMEIDA', 'DOUTOR ARMANDO PANNUNZIO', 'DOS POTIGUARES', 'BARRA DOS BANDEIRANTES', 'VISCONDE DE NITEROI', 'PANORAMA', 'BARONESA DO CERRO AZUL', 'SAO ROQUE', 'PADRE NELSON ANTONIO ROMAO', 'MORRO AGUDO', 'BORGES DE MEDEIROS', 'JOSE CARLOS DOS SANTOS', 'DOUTOR SALES DE OLIVEIRA', 'ZERILLO PEREIRA LOPES', 'CRISTALINA', 'TIJUCO PRETO', 'THEDA FIGUEIREDO REGA', 'URUGUAIANA', 'VER. ACYR JOSE DAMASCENO, 4303', 'TREZE DE MAIO', 'DUARTE DA COSTA', 'CIDADE JARDIM', 'SANTA TEREZINHA', 'CAIOBA', 'LINHA 12, KM 08', 'BENEDITO PIRES RODRIGUES', 'PAULO JACINTO', 'RAIMUNDO JOSE PEREIRA', 'QUINZE DE NOVEMBRO', 'SEPETIBA', 'PAULO MANZANO CASTILHO', 'INDIO TIBIRICA', 'DAS HORTENCIAS', 'GENERAL OSORIO', 'TANCREDO NEVES', 'VITORIA', 'PROFESSOR ANTONIO RUETE', 'ADAIR BEZERRA PEREIRA', 'NUNO ALVARES PEREIRA', 'CONEGO VALADAO']</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>['190', '127', '732', '268', '188', '26', '305', '4801', 'SN', '537', '55', '624', '574', '1706', '109', '938', '333', '330', '601', '833', '9', '270 E', '821', '458', '305', '1425', '123', '517', '20', '130', '588', 'SN', '599', '553', '612', '350', '118', '29', '2595', '259', '228', '138', '410', '448', '356', '412', '67', '112', '4-125', '2377', '121', '1995', '171', '142', '607', '664', '568', '306', '491', '20', '591', '1144', '2554', '886', '414', '229', '299', '20', '1547', '26', '1536', '110', '380', '477', '438', '172', '225', '405', '4303', '877', '737', '4.252', '80', '757', 'S/N', '45', '173', '370', '189', '614', '125', '2639', '1582', '312', '620', '1 E 2', '310', '213', '193', '591']</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>['      200', ': COMERCIO;', 'CASA  1', 'TERREO', 'LOJA: 17;', 'ANDAR 2;SALA 14', 'EDIF', 'LOJA: 1;', '      CONJ. 18', 'CXPST 13', '      272', 'TERREO                    CONJ  21', '      SALA D', '      TERREO', 'APT 1012 B', 'CASA CASA', '      .', 'EDIF;', 'LOJA: 08;', 'SALA  03', 'LOTE: 9; QUADRA: I;', 'SALA  11', 'CASA', '      SALA 04', 'CASA  41', 'CONJ  74-A', 'LOJA  03', '      BOM SUCESSO', 'SALA  08', 'SALA  2', 'COND  MUNDO PLAZA         SALA  517 E 518', 'LOJA;']</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>['CENTRO', 'JD. PRES. DUTRA', 'JARDIM RUBI', 'CENTRO', 'JARDIM MONTE CRISTO/PARQUE OZIEL', 'CENTRO', 'JARDIM NOVA ALVORADA', 'JARDIM REGINA', 'CENTRO', 'JARDIM AMANDA II', 'NOVA GRANADA', 'JOAO FLAVIO', 'SANTA EFIGENIA', 'VILA TAMOIO', 'PINHEIROS', 'NAZARE', 'INDEPENDENCIA (BARREIRO)', 'SETRO INDUSTRIAL', 'BRAS', 'SOLEDADE', 'PARQUE PAN AMERICANO', 'GALO BRANCO', 'JARDIM PAULISTANO II', 'PINHEIROS', 'CENTRO', 'CENTRO', 'JARDIM NOVO MUNDO', 'CENTRO', 'JARDIM PRIMAVERAS', 'CENTRO', 'VILA BANDEIRANTES', 'CAMPO BOM', 'CENTRO', 'CENTRO', 'ENGENHO DE DENTRO', 'JARDIM PEDRA BRANCA', 'JARDIM DAS TULIPAS', 'VILA MARARI', 'PARQUE SAO VICENTE', 'CENTRO', 'AEROPORTO VELHO', 'JABAQUARA', 'CENTRO', 'CIDADE JARDIM', 'JD KELI CRISTINA', 'SAO SEBASTIAO', 'PORTAL LARANJEIRAS', 'SAO TOME', 'NUCLEO RESIDENCIAL PRESIDENTE GEISEL', 'FORTALEZA', 'CIDADE JARDIM', 'JARDIM QUARENTENARIO', 'VILA MOTTA', 'CENTRO', 'VILA ZILDA', 'CENTRO', 'VILA OLIVEIRA', 'CENTRO', 'CENTRO', 'VILA NINA', 'JARDIM DOUTOR ANTONIO PETRAGLIA', 'JARDIM VERA CRUZ', 'NOSSA SENHORA DE NAZARE', 'MANGABEIRA', 'SAO  CRISTOVAO', 'JARDIM STO AFONSO', 'PRAIA DE LESTE', 'CENTRO', 'NOVA MATAO', 'BOM CLIMA', 'CENTRO', 'CENTRO', 'VILA INDUSTRIAL', 'ALTO TAQUARAL', 'CIDADE PARQUE BRASILIA', 'TATUAPE', 'BEL JARDIM', 'BOSQUE', 'CENTRO', 'CENTRO', 'PARQUE IMPERIAL / MUTINGA', 'BOSQUE DOS EUCALIPTOS', 'ROBERTO', 'MODULO 5', 'ZONA RURAL', 'VILA SANTO ANTONIO', 'CIDADE PARQUE BRASILIA (JARDIM PRESIDENTE DUTRA)', 'PARURU', 'CENTRO', 'VILA ROMANA', 'JARDIM LEME', 'ITRAPOA', 'VILA HELENA', 'CENTRO', 'CAMINHO DAS ARVORES', 'MARCILIO DE NORONHA', 'NOVA JABOTICABAL', 'FRANCISCO DE PAULA', 'VILA NOGUEIRA', 'GOPOUVA']</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>['11410160', '07171220', '06502181', '13990000', '13049117', '35430003', '13190000', '04948030', '78587000', '13188210', '30431285', '14415000', '01207000', '14815000', '05415050', '40050000', '30666640', '78320000', '03017000', '50050390', '02993040', '12247600', '14402410', '05412001', '18490000', '65901430', '12906330', '16010080', '14820000', '13480760', '16203094', '88715000', '16600019', '25780000', '20735330', '08490800', '13212631', '04403170', '11340000', '55500000', '69903560', '04343120', '12580000', '18055440', '83609400', '13690000', '07700001', '94465400', '17033000', '68300000', '13050412', '11347520', '15804060', '35970000', '11436010', '36010041', '08780220', '35300365', '13800033', '02834090', '14409135', '18050000', '59062280', '44056532', '20941000', '07215150', '83255000', '18550000', '15990590', '07196290', '99260000', '15830000', '13035270', '13087757', '07243080', '03316000', '06243020', '13026001', '76867000', '14940166', '06462120', '12233002', '15835000', '78320000', '76934000', '18560000', '07243130', '18150000', '06501145', '05052000', '06773140', '09442000', '09175500', '95720000', '41820020', '29130010', '14887032', '14180000', '13088020', '07040000']</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>['SP', 'SP', 'SP', 'SP', 'SP', 'MG', 'SP', 'SP', 'MT', 'SP', 'MG', 'SP', 'SP', 'SP', 'SP', 'BA', 'MG', 'MT', 'SP', 'PE', 'SP', 'SP', 'SP', 'SP', 'SP', 'MA', 'SP', 'SP', 'SP', 'SP', 'SP', 'SC', 'SP', 'RJ', 'RJ', 'SP', 'SP', 'SP', 'SP', 'PE', 'AC', 'SP', 'SP', 'SP', 'PR', 'SP', 'SP', 'RS', 'SP', 'PA', 'SP', 'SP', 'SP', 'MG', 'SP', 'MG', 'SP', 'MG', 'SP', 'SP', 'SP', 'SP', 'RN', 'BA', 'RJ', 'SP', 'PR', 'SP', 'SP', 'SP', 'RS', 'SP', 'SP', 'SP', 'SP', 'SP', 'SP', 'SP', 'RO', 'SP', 'SP', 'SP', 'SP', 'MT', 'RO', 'SP', 'SP', 'SP', 'SP', 'SP', 'SP', 'SP', 'SP', 'RS', 'BA', 'ES', 'SP', 'SP', 'SP', 'SP']</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>['6475', '6477', '7047', '6865', '6291', '5041', '6737', '7107', '1034', '2951', '4123', '6827', '7107', '6487', '7107', '3849', '4123', '9831', '7107', '2531', '7107', '7099', '6425', '7107', '6201', '0803', '6251', '6155', '6133', '6639', '6229', '8173', '6879', '6009', '6001', '7107', '6619', '7107', '7121', '2403', '0139', '7107', '6987', '7145', '7481', '6375', '6281', '8963', '6219', '0461', '6291', '7121', '6323', '4107', '6475', '4733', '6713', '4267', '6717', '7107', '6425', '7145', '1761', '3515', '6001', '6477', '0870', '6239', '6687', '6477', '8595', '6863', '6291', '6291', '6477', '7107', '6789', '6291', '0024', '6493', '6213', '7099', '6863', '9831', '0699', '6521', '6477', '6495', '7047', '7107', '7157', '6967', '7057', '8669', '3849', '5701', '6587', '6905', '6291', '6477']</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>['13', '11', '11', '19', '19', '31', '19', '11', '66', '19', '31', '16', '11', '16', '11', '71', '31', '66', '11', '81', '11', '12', '16', '11', '15', '99', '11', '18', '16', '19', '18', '48', '14', '24', '22', '11', '11', '11', '13', '81', '68', '11', '12', '15', '41', '19', '11', '51', '14', '91', '19', '13', '17', '31', '13', '32', '11', '33', '19', '11', '16', '15', '84', '75', '21', '11', '41', '15', '16', '11', '54', '17', '19', '19', '11', '11', '11', '19', '69', '16', '11', '12', '17', '66', '69', '15', '11', '15', '11', '11', '11', '11', '11', '54', '71', '27', '16', '16', '19', '11']</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>['32298888', '24314434', '94906167', '36511209', '32289811', '38811695', '38791705', '33136533', '35251525', '98271309', '32713208', '31451390', '66952383', '33431137', '38720122', '91963478', '33844529', '35661322', '34499802', '32230063', '36214094', '39416366', '30174689', '92612131', '35651164', '35246694', '34047760', '36225018', '33923667', '34414401', '36441516', '36243289', '35224168', '92029728', '81189884', '54860036', '45821710', '55896735', '32897927', '35342611', '32245538', '25781266', '36461303', '34114484', '30166068', '35834413', '96793007', '30457426', '97557823', '37831453', '32672821', '30148032', '35221328', '38526756', '33521035', '32413542', '47997200', '33216722', '38622487', '39895830', '31451440', '21044659', '32061646', '36145933', '78290320', '20800101', '34232383', '32632700', '33849192', '20870748', '33471209', '35721460', '32695674', '32964440', '42158285', '20810367', '35997571', '38716545', '35251091', '33414405', '41917501', '39333000', '35731198', '96146292', '36232141', '32664462', '24343436', '32891329', '42808241', '36452369', '42455748', '48239102', '44330980', '91747000', '30210040', '33361790', '92195188', '39535831', '92672958', '23046369']</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>['11', '31', '31', '16', '71', '15', '11', '68', '41', '14', '13', '13', '84', '11', '11', '12', '66', '15', '11', '11', '11', '71', '11']</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>['24314434', '38172109', '92050710', '33432571', '32436202', '35651076', '55896735', '84162327', '30922020', '98557823', '32194664', '33521840', '41414623', '24793280', '24804598', '39344400', '96146292', '32661629', '87514098', '42455748', '44330980', '30210062', '49656604']</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>['11', '19', '31', '31', '16', '16', '11', '71', '16', '15', '16', '48', '11', '68', '14', '91', '13', '31', '13', '33', '16', '15', '84', '41', '11', '17', '11', '11', '19', '16', '12', '66', '15', '11', '11', '11', '11']</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>['24314434', '36511209', '38172109', '32713208', '31451390', '33431137', '27490124', '32436202', '37213496', '35651926', '33923667', '36241045', '22769910', '32245538', '32321689', '37831453', '32194664', '38526756', '33521840', '33216709', '31451440', '32113575', '32061646', '34232383', '24793280', '35721460', '20810367', '35997571', '38716545', '33427058', '39311200', '35667500', '32664462', '24343436', '36060538', '42455748', '44330984']</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>['f.m@uol.com.br', 'contabilidade@contabilmc.com.br', 'mserrat.ops@terra.com.br', 'escritsantacecilia@terra.com.br.', 'oliveira.aure@gmail.com', 'MM@PONTENET.COM.BR', 'murniek@interall.com.br', 'aline@lopesassessoria.com.br', 'dj_variedades@hotmail.com', 'warp_sys@hotmail.com', 'ETERNO.DESEJO@HOTMAIL.COM', 'valmirafliporoni@hotmail.com.br', 'ATENDIMENTO@ISOUZA.COM', 'organizacaofiscaluuniao@yahoo.com.br', 'esc.atlantida@uol.com.br', 'TARCISIOITA@IG.COM.BR', 'DEPTOCONTRATOS@CONTABILCERTA.COM.BR', 'grupo.virtu@ig.com.br', 'DIREITOCRIMINAL@HOTMAIL.COM', 'conthabilsjoao@ig.com.br', 'salgueiromoura@directnet.com.br', 'ESCRITORIOCONTADOR@HOTMAIL.COM', 'bgiosa@yahoo.com', 'gilulo@uol.com.br', 'CONTROLLIZAIAS@GMAIL.COM', 'vargascamila@gmail.com', 'invicta2@terra.com.br', 'escr.brasiliense@terra.com.br', 'gvambrosecchia@ig.com.br', 'olivermas@terra.com.br', 'escpaulista@uol.com.br', 'WILLIAN.SOUZAWF@YAHOO.COM.BR', 'NBDANY@HOTMAIL.COM', 'JANDERSON_BELO@YAHOO.COM.BR', 'climoreira25@gmail.com', 'efcfcont@hotmail.com', 'depauladom@uol.com.br', 'lelis.jose@terra.com.br', 'escritoriolg.cerrado@gmail.com', 'larissaangelo@terra.com.br', 'conthabilsjoao@ig.com.br', 'MINI.MERCADOFARROUPILHA@GMAIL.COM', 'ROBERGALVANI@HOTMAIL.COM', 'fcc3@bol.com.br', 'decymarcont@uol.com.br', 'asseccontabil@hotmail.com', 'oliani@terra.com.br', 'GABRIELARCANJO.VISAO@GMAIL.COM', 'contpirani@terra.com.br', 'MARCIO.MATTA@CLICK21.COM.BR', 'sintese@sintesecontabilidade.com.br', 'EVIDENCIAR@UOL.COM.BR', 'escritmc@terra.com.br', 'tagal@terra.com.br', 'mayra_consuelo@hotmail.com', 'ADMJCONTABILIDADE@GMAIL.COM', 'escrita@supercabo.com.br', 'CONTATO@MTCONTABILIDADE.COM.BR', 'mfeletrocos@ig.com.br', 'contato@wacontabil.com.br', 'calegarifiscontabil@bol.com.br', 'FERNANDOESPETINHO@OUTLOOK.COM', 'leticia@phassessoriacontabil.com.br', 'escr.veronezi@uol.com.br', 'CASTLIN@TERRA.COM.BR', 'adailtonsilva14@gmail.com', 'CONTABILIDADE@SEVENCONTABIL.COM', 'surycata@uol.com.br', 'vergiliorodrigues@uol.com.br', 'vbborim@hotmail.com', 'AGROPECUARIACRISFAMA@HOTMAIL.COM', 'VICONT@UOL.COM.BR', 'processo@aldebarancontabil.com.br', 'escritoriorobertense@hotmail.com', 'contaudit@contaudit.com.br', 'CONTABILIDADEALIANCAIPERO@HOTMAIL.COM', 'jsav@ig.com.br', 'fajovi@ibest.com.br', 'EDINEIA.CAVALCANTE@GMAIL.COM', 'juliana.carpi@gmail.com', 'vieiracontabil@starmedia.com', 'conta@conta.com.br', 'paulino@paulino.com.br', 'daniel@andcontabilidade.com.br', 'ANILTON@VITECCONTABIL.COM.BR', 'beraldo@beraldoassociados.com.br', 'martelinho65@terra.com.br', 'vi.ana@itelefonica.com.br', 'CONFIANCACONTABIL@IG.COM.BR']</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
